--- a/收入-DAU预估模型/收入预估.xlsx
+++ b/收入-DAU预估模型/收入预估.xlsx
@@ -37832,7 +37832,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/收入-DAU预估模型/收入预估.xlsx
+++ b/收入-DAU预估模型/收入预估.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\收入-DAU预估模型\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\收入-dau预估模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -812,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -884,6 +884,7 @@
     <xf numFmtId="10" fontId="8" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1304,7 +1305,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16:E17"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24230,7 +24231,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -24254,13 +24257,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R144"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I135" sqref="I135"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30">
@@ -32338,16 +32342,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="D7:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="60">
+    <row r="1" spans="1:12" ht="45">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -37829,57 +37842,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="43">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="43">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="43">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="43">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="43">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="43">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="43">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="43">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="43">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="43">
+        <v>43739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="43">
+        <v>43770</v>
       </c>
     </row>
   </sheetData>

--- a/收入-DAU预估模型/收入预估.xlsx
+++ b/收入-DAU预估模型/收入预估.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\收入-dau预估模型\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Learning/[Notes]/收入-DAU预估模型/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03070D44-35F5-D943-B297-C38DE800C39A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="25600" yWindow="-1860" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模拟计算" sheetId="1" r:id="rId1"/>
@@ -23,8 +24,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">历史收入数据!$A$1:$L$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -631,12 +637,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy/m"/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="166" formatCode="0_ "/>
+    <numFmt numFmtId="167" formatCode="yyyy/m"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -815,7 +821,7 @@
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -825,30 +831,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -887,7 +893,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1002,7 +1008,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1298,38 +1310,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB379"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="N233" sqref="N233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="15" width="10.140625" customWidth="1"/>
-    <col min="16" max="20" width="8.5703125" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" customWidth="1"/>
-    <col min="26" max="27" width="8.85546875" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" customWidth="1"/>
-    <col min="29" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.5"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="15" width="10.1640625" customWidth="1"/>
+    <col min="16" max="20" width="8.5" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.33203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" customWidth="1"/>
+    <col min="26" max="27" width="8.83203125" customWidth="1"/>
+    <col min="28" max="28" width="14.5" customWidth="1"/>
+    <col min="29" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="34.5" customHeight="1">
@@ -7488,7 +7500,7 @@
       </c>
       <c r="U92" s="2">
         <f t="shared" si="9"/>
-        <v>12031.654130197912</v>
+        <v>12031.654130197914</v>
       </c>
       <c r="V92" s="2">
         <f t="shared" si="10"/>
@@ -7499,11 +7511,11 @@
       </c>
       <c r="X92" s="2">
         <f t="shared" si="11"/>
-        <v>11038.675869802089</v>
+        <v>11038.675869802088</v>
       </c>
       <c r="Y92">
         <f t="shared" si="12"/>
-        <v>9625.3233041583298</v>
+        <v>9625.3233041583317</v>
       </c>
     </row>
     <row r="93" spans="1:25">
@@ -12789,7 +12801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:25" ht="16.5">
+    <row r="184" spans="1:25" ht="17">
       <c r="A184" s="8">
         <v>43587</v>
       </c>
@@ -12836,7 +12848,7 @@
         <v>385725.15840985515</v>
       </c>
     </row>
-    <row r="185" spans="1:25" ht="16.5">
+    <row r="185" spans="1:25" ht="17">
       <c r="A185" s="8">
         <v>43588</v>
       </c>
@@ -12883,7 +12895,7 @@
         <v>329744.4490018682</v>
       </c>
     </row>
-    <row r="186" spans="1:25" ht="16.5">
+    <row r="186" spans="1:25" ht="17">
       <c r="A186" s="8">
         <v>43589</v>
       </c>
@@ -12933,7 +12945,7 @@
         <v>340678.04657066474</v>
       </c>
     </row>
-    <row r="187" spans="1:25" ht="16.5">
+    <row r="187" spans="1:25" ht="17">
       <c r="A187" s="8">
         <v>43590</v>
       </c>
@@ -12983,7 +12995,7 @@
         <v>339408.02127509844</v>
       </c>
     </row>
-    <row r="188" spans="1:25" ht="16.5">
+    <row r="188" spans="1:25" ht="17">
       <c r="A188" s="8">
         <v>43591</v>
       </c>
@@ -13036,7 +13048,7 @@
         <v>345445.84720659279</v>
       </c>
     </row>
-    <row r="189" spans="1:25" ht="16.5">
+    <row r="189" spans="1:25" ht="17">
       <c r="A189" s="8">
         <v>43592</v>
       </c>
@@ -19734,16 +19746,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="24" customWidth="1"/>
-    <col min="3" max="1025" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="24" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -19850,17 +19862,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D396"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -24228,16 +24240,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -24254,20 +24266,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="2" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30">
+    <row r="1" spans="1:18" ht="36">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -24323,7 +24335,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" ht="18">
       <c r="A2" s="36">
         <v>20181101</v>
       </c>
@@ -24379,7 +24391,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" ht="18">
       <c r="A3" s="36">
         <v>20181102</v>
       </c>
@@ -24435,7 +24447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" ht="18">
       <c r="A4" s="36">
         <v>20181103</v>
       </c>
@@ -24491,7 +24503,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" ht="18">
       <c r="A5" s="36">
         <v>20181104</v>
       </c>
@@ -24547,7 +24559,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" ht="18">
       <c r="A6" s="36">
         <v>20181105</v>
       </c>
@@ -24603,7 +24615,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" ht="18">
       <c r="A7" s="36">
         <v>20181106</v>
       </c>
@@ -24659,7 +24671,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" ht="18">
       <c r="A8" s="36">
         <v>20181107</v>
       </c>
@@ -24715,7 +24727,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" ht="18">
       <c r="A9" s="36">
         <v>20181108</v>
       </c>
@@ -24771,7 +24783,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" ht="18">
       <c r="A10" s="36">
         <v>20181109</v>
       </c>
@@ -24827,7 +24839,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" ht="18">
       <c r="A11" s="36">
         <v>20181110</v>
       </c>
@@ -24883,7 +24895,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" ht="18">
       <c r="A12" s="36">
         <v>20181111</v>
       </c>
@@ -24939,7 +24951,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" ht="18">
       <c r="A13" s="36">
         <v>20181112</v>
       </c>
@@ -24995,7 +25007,7 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" ht="18">
       <c r="A14" s="36">
         <v>20181113</v>
       </c>
@@ -25051,7 +25063,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" ht="18">
       <c r="A15" s="36">
         <v>20181114</v>
       </c>
@@ -25107,7 +25119,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" ht="18">
       <c r="A16" s="36">
         <v>20181115</v>
       </c>
@@ -25163,7 +25175,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" ht="18">
       <c r="A17" s="36">
         <v>20181116</v>
       </c>
@@ -25219,7 +25231,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" ht="18">
       <c r="A18" s="36">
         <v>20181117</v>
       </c>
@@ -25275,7 +25287,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" ht="18">
       <c r="A19" s="36">
         <v>20181118</v>
       </c>
@@ -25331,7 +25343,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" ht="18">
       <c r="A20" s="36">
         <v>20181119</v>
       </c>
@@ -25387,7 +25399,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" ht="18">
       <c r="A21" s="36">
         <v>20181120</v>
       </c>
@@ -25443,7 +25455,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" ht="18">
       <c r="A22" s="36">
         <v>20181121</v>
       </c>
@@ -25499,7 +25511,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="18">
       <c r="A23" s="36">
         <v>20181122</v>
       </c>
@@ -25555,7 +25567,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" ht="18">
       <c r="A24" s="36">
         <v>20181123</v>
       </c>
@@ -25611,7 +25623,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" ht="18">
       <c r="A25" s="36">
         <v>20181124</v>
       </c>
@@ -25667,7 +25679,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" ht="18">
       <c r="A26" s="36">
         <v>20181125</v>
       </c>
@@ -25723,7 +25735,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" ht="18">
       <c r="A27" s="36">
         <v>20181126</v>
       </c>
@@ -25779,7 +25791,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" ht="18">
       <c r="A28" s="36">
         <v>20181127</v>
       </c>
@@ -25835,7 +25847,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" ht="18">
       <c r="A29" s="36">
         <v>20181128</v>
       </c>
@@ -25891,7 +25903,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" ht="18">
       <c r="A30" s="36">
         <v>20181129</v>
       </c>
@@ -25947,7 +25959,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" ht="18">
       <c r="A31" s="36">
         <v>20181130</v>
       </c>
@@ -26003,7 +26015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" ht="18">
       <c r="A32" s="36">
         <v>20181201</v>
       </c>
@@ -26059,7 +26071,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" ht="18">
       <c r="A33" s="36">
         <v>20181202</v>
       </c>
@@ -26115,7 +26127,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" ht="18">
       <c r="A34" s="36">
         <v>20181203</v>
       </c>
@@ -26171,7 +26183,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" ht="18">
       <c r="A35" s="36">
         <v>20181204</v>
       </c>
@@ -26227,7 +26239,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" ht="18">
       <c r="A36" s="36">
         <v>20181205</v>
       </c>
@@ -26283,7 +26295,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" ht="18">
       <c r="A37" s="36">
         <v>20181206</v>
       </c>
@@ -26339,7 +26351,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" ht="18">
       <c r="A38" s="36">
         <v>20181207</v>
       </c>
@@ -26395,7 +26407,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" ht="18">
       <c r="A39" s="36">
         <v>20181208</v>
       </c>
@@ -26451,7 +26463,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" ht="18">
       <c r="A40" s="36">
         <v>20181209</v>
       </c>
@@ -26507,7 +26519,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" ht="18">
       <c r="A41" s="36">
         <v>20181210</v>
       </c>
@@ -26563,7 +26575,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" ht="18">
       <c r="A42" s="36">
         <v>20181211</v>
       </c>
@@ -26619,7 +26631,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" ht="18">
       <c r="A43" s="36">
         <v>20181212</v>
       </c>
@@ -26675,7 +26687,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" ht="18">
       <c r="A44" s="36">
         <v>20181213</v>
       </c>
@@ -26731,7 +26743,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" ht="18">
       <c r="A45" s="36">
         <v>20181214</v>
       </c>
@@ -26787,7 +26799,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" ht="18">
       <c r="A46" s="36">
         <v>20181215</v>
       </c>
@@ -26843,7 +26855,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" ht="18">
       <c r="A47" s="36">
         <v>20181216</v>
       </c>
@@ -26899,7 +26911,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" ht="18">
       <c r="A48" s="36">
         <v>20181217</v>
       </c>
@@ -26955,7 +26967,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" ht="18">
       <c r="A49" s="36">
         <v>20181218</v>
       </c>
@@ -27011,7 +27023,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" ht="18">
       <c r="A50" s="36">
         <v>20181219</v>
       </c>
@@ -27067,7 +27079,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" ht="18">
       <c r="A51" s="36">
         <v>20181220</v>
       </c>
@@ -27123,7 +27135,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" ht="18">
       <c r="A52" s="36">
         <v>20181221</v>
       </c>
@@ -27179,7 +27191,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" ht="18">
       <c r="A53" s="36">
         <v>20181222</v>
       </c>
@@ -27235,7 +27247,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" ht="18">
       <c r="A54" s="36">
         <v>20181223</v>
       </c>
@@ -27291,7 +27303,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" ht="18">
       <c r="A55" s="36">
         <v>20181224</v>
       </c>
@@ -27347,7 +27359,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" ht="18">
       <c r="A56" s="36">
         <v>20181225</v>
       </c>
@@ -27403,7 +27415,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" ht="18">
       <c r="A57" s="36">
         <v>20181226</v>
       </c>
@@ -27459,7 +27471,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" ht="18">
       <c r="A58" s="36">
         <v>20181227</v>
       </c>
@@ -27515,7 +27527,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" ht="18">
       <c r="A59" s="36">
         <v>20181228</v>
       </c>
@@ -27571,7 +27583,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" ht="18">
       <c r="A60" s="36">
         <v>20181229</v>
       </c>
@@ -27627,7 +27639,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" ht="18">
       <c r="A61" s="36">
         <v>20181230</v>
       </c>
@@ -27683,7 +27695,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" ht="18">
       <c r="A62" s="36">
         <v>20181231</v>
       </c>
@@ -27739,7 +27751,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" ht="18">
       <c r="A63" s="36">
         <v>20190101</v>
       </c>
@@ -27795,7 +27807,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" ht="18">
       <c r="A64" s="36">
         <v>20190102</v>
       </c>
@@ -27851,7 +27863,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" ht="18">
       <c r="A65" s="36">
         <v>20190103</v>
       </c>
@@ -27907,7 +27919,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" ht="18">
       <c r="A66" s="36">
         <v>20190104</v>
       </c>
@@ -27963,7 +27975,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" ht="18">
       <c r="A67" s="36">
         <v>20190105</v>
       </c>
@@ -28019,7 +28031,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" ht="18">
       <c r="A68" s="36">
         <v>20190106</v>
       </c>
@@ -28075,7 +28087,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" ht="18">
       <c r="A69" s="36">
         <v>20190107</v>
       </c>
@@ -28131,7 +28143,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" ht="18">
       <c r="A70" s="36">
         <v>20190108</v>
       </c>
@@ -28187,7 +28199,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" ht="18">
       <c r="A71" s="36">
         <v>20190109</v>
       </c>
@@ -28243,7 +28255,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" ht="18">
       <c r="A72" s="36">
         <v>20190110</v>
       </c>
@@ -28299,7 +28311,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" ht="18">
       <c r="A73" s="36">
         <v>20190111</v>
       </c>
@@ -28355,7 +28367,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" ht="18">
       <c r="A74" s="36">
         <v>20190112</v>
       </c>
@@ -28411,7 +28423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" ht="18">
       <c r="A75" s="36">
         <v>20190113</v>
       </c>
@@ -28467,7 +28479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" ht="18">
       <c r="A76" s="36">
         <v>20190114</v>
       </c>
@@ -28523,7 +28535,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" ht="18">
       <c r="A77" s="36">
         <v>20190115</v>
       </c>
@@ -28579,7 +28591,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" ht="18">
       <c r="A78" s="36">
         <v>20190116</v>
       </c>
@@ -28635,7 +28647,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" ht="18">
       <c r="A79" s="36">
         <v>20190117</v>
       </c>
@@ -28691,7 +28703,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" ht="18">
       <c r="A80" s="36">
         <v>20190118</v>
       </c>
@@ -28747,7 +28759,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" ht="18">
       <c r="A81" s="36">
         <v>20190119</v>
       </c>
@@ -28803,7 +28815,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" ht="18">
       <c r="A82" s="36">
         <v>20190120</v>
       </c>
@@ -28859,7 +28871,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" ht="18">
       <c r="A83" s="36">
         <v>20190121</v>
       </c>
@@ -28915,7 +28927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" ht="18">
       <c r="A84" s="36">
         <v>20190122</v>
       </c>
@@ -28971,7 +28983,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" ht="18">
       <c r="A85" s="36">
         <v>20190123</v>
       </c>
@@ -29027,7 +29039,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" ht="18">
       <c r="A86" s="36">
         <v>20190124</v>
       </c>
@@ -29083,7 +29095,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" ht="18">
       <c r="A87" s="36">
         <v>20190125</v>
       </c>
@@ -29139,7 +29151,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" ht="18">
       <c r="A88" s="36">
         <v>20190126</v>
       </c>
@@ -29195,7 +29207,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" ht="18">
       <c r="A89" s="36">
         <v>20190127</v>
       </c>
@@ -29251,7 +29263,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" ht="18">
       <c r="A90" s="36">
         <v>20190128</v>
       </c>
@@ -29307,7 +29319,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" ht="18">
       <c r="A91" s="36">
         <v>20190129</v>
       </c>
@@ -29363,7 +29375,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" ht="18">
       <c r="A92" s="36">
         <v>20190130</v>
       </c>
@@ -29419,7 +29431,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" ht="18">
       <c r="A93" s="36">
         <v>20190131</v>
       </c>
@@ -29475,7 +29487,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" ht="18">
       <c r="A94" s="36">
         <v>20190201</v>
       </c>
@@ -29531,7 +29543,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" ht="18">
       <c r="A95" s="36">
         <v>20190202</v>
       </c>
@@ -29587,7 +29599,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" ht="18">
       <c r="A96" s="36">
         <v>20190203</v>
       </c>
@@ -29643,7 +29655,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" ht="18">
       <c r="A97" s="36">
         <v>20190204</v>
       </c>
@@ -29699,7 +29711,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" ht="18">
       <c r="A98" s="36">
         <v>20190205</v>
       </c>
@@ -29755,7 +29767,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" ht="18">
       <c r="A99" s="36">
         <v>20190206</v>
       </c>
@@ -29811,7 +29823,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" ht="18">
       <c r="A100" s="36">
         <v>20190207</v>
       </c>
@@ -29867,7 +29879,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" ht="18">
       <c r="A101" s="36">
         <v>20190208</v>
       </c>
@@ -29923,7 +29935,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" ht="18">
       <c r="A102" s="36">
         <v>20190209</v>
       </c>
@@ -29979,7 +29991,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" ht="18">
       <c r="A103" s="36">
         <v>20190210</v>
       </c>
@@ -30035,7 +30047,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" ht="18">
       <c r="A104" s="36">
         <v>20190211</v>
       </c>
@@ -30091,7 +30103,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" ht="18">
       <c r="A105" s="36">
         <v>20190212</v>
       </c>
@@ -30147,7 +30159,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" ht="18">
       <c r="A106" s="36">
         <v>20190213</v>
       </c>
@@ -30203,7 +30215,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" ht="18">
       <c r="A107" s="36">
         <v>20190214</v>
       </c>
@@ -30259,7 +30271,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" ht="18">
       <c r="A108" s="36">
         <v>20190215</v>
       </c>
@@ -30315,7 +30327,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" ht="18">
       <c r="A109" s="36">
         <v>20190216</v>
       </c>
@@ -30371,7 +30383,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" ht="18">
       <c r="A110" s="36">
         <v>20190217</v>
       </c>
@@ -30427,7 +30439,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" ht="18">
       <c r="A111" s="36">
         <v>20190218</v>
       </c>
@@ -30483,7 +30495,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="16.5">
+    <row r="112" spans="1:18" ht="17">
       <c r="A112">
         <v>20190219</v>
       </c>
@@ -30539,7 +30551,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="16.5">
+    <row r="113" spans="1:18" ht="17">
       <c r="A113">
         <v>20190220</v>
       </c>
@@ -30595,7 +30607,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="16.5">
+    <row r="114" spans="1:18" ht="17">
       <c r="A114">
         <v>20190221</v>
       </c>
@@ -30651,7 +30663,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="16.5">
+    <row r="115" spans="1:18" ht="17">
       <c r="A115">
         <v>20190222</v>
       </c>
@@ -30707,7 +30719,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="16.5">
+    <row r="116" spans="1:18" ht="17">
       <c r="A116">
         <v>20190223</v>
       </c>
@@ -30763,7 +30775,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="16.5">
+    <row r="117" spans="1:18" ht="17">
       <c r="A117">
         <v>20190224</v>
       </c>
@@ -30819,7 +30831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="16.5">
+    <row r="118" spans="1:18" ht="17">
       <c r="A118">
         <v>20190225</v>
       </c>
@@ -30875,7 +30887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="16.5">
+    <row r="119" spans="1:18" ht="17">
       <c r="A119">
         <v>20190226</v>
       </c>
@@ -30931,7 +30943,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="16.5">
+    <row r="120" spans="1:18" ht="17">
       <c r="A120">
         <v>20190227</v>
       </c>
@@ -30987,7 +30999,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="16.5">
+    <row r="121" spans="1:18" ht="17">
       <c r="A121">
         <v>20190228</v>
       </c>
@@ -31043,7 +31055,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="16.5">
+    <row r="122" spans="1:18" ht="17">
       <c r="A122">
         <v>20190301</v>
       </c>
@@ -31099,7 +31111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="16.5">
+    <row r="123" spans="1:18" ht="17">
       <c r="A123">
         <v>20190302</v>
       </c>
@@ -31155,7 +31167,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="16.5">
+    <row r="124" spans="1:18" ht="17">
       <c r="A124">
         <v>20190303</v>
       </c>
@@ -31211,7 +31223,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="16.5">
+    <row r="125" spans="1:18" ht="17">
       <c r="A125">
         <v>20190304</v>
       </c>
@@ -31267,7 +31279,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="16.5">
+    <row r="126" spans="1:18" ht="17">
       <c r="A126">
         <v>20190305</v>
       </c>
@@ -31323,7 +31335,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="16.5">
+    <row r="127" spans="1:18" ht="17">
       <c r="A127">
         <v>20190306</v>
       </c>
@@ -31379,7 +31391,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="16.5">
+    <row r="128" spans="1:18" ht="17">
       <c r="A128">
         <v>20190307</v>
       </c>
@@ -31435,7 +31447,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="16.5">
+    <row r="129" spans="1:18" ht="17">
       <c r="A129">
         <v>20190308</v>
       </c>
@@ -31491,7 +31503,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="16.5">
+    <row r="130" spans="1:18" ht="17">
       <c r="A130">
         <v>20190309</v>
       </c>
@@ -31547,7 +31559,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="16.5">
+    <row r="131" spans="1:18" ht="17">
       <c r="A131">
         <v>20190310</v>
       </c>
@@ -31603,7 +31615,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="16.5">
+    <row r="132" spans="1:18" ht="17">
       <c r="A132">
         <v>20190311</v>
       </c>
@@ -31659,7 +31671,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="16.5">
+    <row r="133" spans="1:18" ht="17">
       <c r="A133">
         <v>20190312</v>
       </c>
@@ -31715,7 +31727,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="16.5">
+    <row r="134" spans="1:18" ht="17">
       <c r="A134">
         <v>20190313</v>
       </c>
@@ -31771,7 +31783,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="16.5">
+    <row r="135" spans="1:18" ht="17">
       <c r="A135">
         <v>20190314</v>
       </c>
@@ -31827,7 +31839,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="16.5">
+    <row r="136" spans="1:18" ht="17">
       <c r="A136">
         <v>20190315</v>
       </c>
@@ -31883,7 +31895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="16.5">
+    <row r="137" spans="1:18" ht="17">
       <c r="A137">
         <v>20190316</v>
       </c>
@@ -31939,7 +31951,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="16.5">
+    <row r="138" spans="1:18" ht="17">
       <c r="A138">
         <v>20190317</v>
       </c>
@@ -31995,7 +32007,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="16.5">
+    <row r="139" spans="1:18" ht="17">
       <c r="A139">
         <v>20190318</v>
       </c>
@@ -32051,7 +32063,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="16.5">
+    <row r="140" spans="1:18" ht="17">
       <c r="A140">
         <v>20190319</v>
       </c>
@@ -32107,7 +32119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="16.5">
+    <row r="141" spans="1:18" ht="17">
       <c r="A141">
         <v>20190320</v>
       </c>
@@ -32163,7 +32175,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="16.5">
+    <row r="142" spans="1:18" ht="17">
       <c r="A142">
         <v>20190321</v>
       </c>
@@ -32219,7 +32231,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="16.5">
+    <row r="143" spans="1:18" ht="17">
       <c r="A143">
         <v>20190322</v>
       </c>
@@ -32275,7 +32287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="16.5">
+    <row r="144" spans="1:18" ht="17">
       <c r="A144">
         <v>20190323</v>
       </c>
@@ -32339,28 +32351,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I27" sqref="D7:I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45">
+    <row r="1" spans="1:12" ht="54">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -32398,7 +32410,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="18">
       <c r="A2" s="39">
         <v>20181101</v>
       </c>
@@ -32436,7 +32448,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="18">
       <c r="A3" s="36">
         <v>20181102</v>
       </c>
@@ -32474,7 +32486,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="18">
       <c r="A4" s="36">
         <v>20181103</v>
       </c>
@@ -32512,7 +32524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="18">
       <c r="A5" s="36">
         <v>20181104</v>
       </c>
@@ -32550,7 +32562,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="18">
       <c r="A6" s="36">
         <v>20181105</v>
       </c>
@@ -32588,7 +32600,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="18">
       <c r="A7" s="36">
         <v>20181106</v>
       </c>
@@ -32626,7 +32638,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="18">
       <c r="A8" s="36">
         <v>20181107</v>
       </c>
@@ -32664,7 +32676,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="18">
       <c r="A9" s="36">
         <v>20181108</v>
       </c>
@@ -32702,7 +32714,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="18">
       <c r="A10" s="36">
         <v>20181109</v>
       </c>
@@ -32740,7 +32752,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="18">
       <c r="A11" s="36">
         <v>20181110</v>
       </c>
@@ -32778,7 +32790,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="18">
       <c r="A12" s="36">
         <v>20181111</v>
       </c>
@@ -32816,7 +32828,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="18">
       <c r="A13" s="36">
         <v>20181112</v>
       </c>
@@ -32854,7 +32866,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="18">
       <c r="A14" s="36">
         <v>20181113</v>
       </c>
@@ -32892,7 +32904,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="18">
       <c r="A15" s="36">
         <v>20181114</v>
       </c>
@@ -32930,7 +32942,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" ht="18">
       <c r="A16" s="36">
         <v>20181115</v>
       </c>
@@ -32968,7 +32980,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="18">
       <c r="A17" s="36">
         <v>20181116</v>
       </c>
@@ -33006,7 +33018,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" ht="18">
       <c r="A18" s="36">
         <v>20181117</v>
       </c>
@@ -33044,7 +33056,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" ht="18">
       <c r="A19" s="36">
         <v>20181118</v>
       </c>
@@ -33082,7 +33094,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" ht="18">
       <c r="A20" s="36">
         <v>20181119</v>
       </c>
@@ -33120,7 +33132,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" ht="18">
       <c r="A21" s="36">
         <v>20181120</v>
       </c>
@@ -33158,7 +33170,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" ht="18">
       <c r="A22" s="36">
         <v>20181121</v>
       </c>
@@ -33196,7 +33208,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" ht="18">
       <c r="A23" s="36">
         <v>20181122</v>
       </c>
@@ -33234,7 +33246,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" ht="18">
       <c r="A24" s="36">
         <v>20181123</v>
       </c>
@@ -33272,7 +33284,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" ht="18">
       <c r="A25" s="36">
         <v>20181124</v>
       </c>
@@ -33310,7 +33322,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" ht="18">
       <c r="A26" s="36">
         <v>20181125</v>
       </c>
@@ -33348,7 +33360,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" ht="18">
       <c r="A27" s="36">
         <v>20181126</v>
       </c>
@@ -33386,7 +33398,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" ht="18">
       <c r="A28" s="36">
         <v>20181127</v>
       </c>
@@ -33424,7 +33436,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" ht="18">
       <c r="A29" s="36">
         <v>20181128</v>
       </c>
@@ -33462,7 +33474,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" ht="18">
       <c r="A30" s="36">
         <v>20181129</v>
       </c>
@@ -33500,7 +33512,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" ht="18">
       <c r="A31" s="36">
         <v>20181130</v>
       </c>
@@ -33538,7 +33550,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" ht="18">
       <c r="A32" s="36">
         <v>20181201</v>
       </c>
@@ -33576,7 +33588,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" ht="18">
       <c r="A33" s="36">
         <v>20181202</v>
       </c>
@@ -33614,7 +33626,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" ht="18">
       <c r="A34" s="36">
         <v>20181203</v>
       </c>
@@ -33652,7 +33664,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" ht="18">
       <c r="A35" s="36">
         <v>20181204</v>
       </c>
@@ -33690,7 +33702,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" ht="18">
       <c r="A36" s="36">
         <v>20181205</v>
       </c>
@@ -33728,7 +33740,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" ht="18">
       <c r="A37" s="36">
         <v>20181206</v>
       </c>
@@ -33766,7 +33778,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" ht="18">
       <c r="A38" s="36">
         <v>20181207</v>
       </c>
@@ -33804,7 +33816,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" ht="18">
       <c r="A39" s="36">
         <v>20181208</v>
       </c>
@@ -33842,7 +33854,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" ht="18">
       <c r="A40" s="36">
         <v>20181209</v>
       </c>
@@ -33880,7 +33892,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" ht="18">
       <c r="A41" s="36">
         <v>20181210</v>
       </c>
@@ -33918,7 +33930,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" ht="18">
       <c r="A42" s="36">
         <v>20181211</v>
       </c>
@@ -33956,7 +33968,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" ht="18">
       <c r="A43" s="36">
         <v>20181212</v>
       </c>
@@ -33994,7 +34006,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" ht="18">
       <c r="A44" s="36">
         <v>20181213</v>
       </c>
@@ -34032,7 +34044,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" ht="18">
       <c r="A45" s="36">
         <v>20181214</v>
       </c>
@@ -34070,7 +34082,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" ht="18">
       <c r="A46" s="36">
         <v>20181215</v>
       </c>
@@ -34108,7 +34120,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" ht="18">
       <c r="A47" s="36">
         <v>20181216</v>
       </c>
@@ -34146,7 +34158,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" ht="18">
       <c r="A48" s="36">
         <v>20181217</v>
       </c>
@@ -34184,7 +34196,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" ht="18">
       <c r="A49" s="36">
         <v>20181218</v>
       </c>
@@ -34222,7 +34234,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" ht="18">
       <c r="A50" s="36">
         <v>20181219</v>
       </c>
@@ -34260,7 +34272,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" ht="18">
       <c r="A51" s="36">
         <v>20181220</v>
       </c>
@@ -34298,7 +34310,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" ht="18">
       <c r="A52" s="36">
         <v>20181221</v>
       </c>
@@ -34336,7 +34348,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" ht="18">
       <c r="A53" s="36">
         <v>20181222</v>
       </c>
@@ -34374,7 +34386,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" ht="18">
       <c r="A54" s="36">
         <v>20181223</v>
       </c>
@@ -34412,7 +34424,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" ht="18">
       <c r="A55" s="36">
         <v>20181224</v>
       </c>
@@ -34450,7 +34462,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" ht="18">
       <c r="A56" s="36">
         <v>20181225</v>
       </c>
@@ -34488,7 +34500,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" ht="18">
       <c r="A57" s="36">
         <v>20181226</v>
       </c>
@@ -34526,7 +34538,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" ht="18">
       <c r="A58" s="36">
         <v>20181227</v>
       </c>
@@ -34564,7 +34576,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" ht="18">
       <c r="A59" s="36">
         <v>20181228</v>
       </c>
@@ -34602,7 +34614,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" ht="18">
       <c r="A60" s="36">
         <v>20181229</v>
       </c>
@@ -34640,7 +34652,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" ht="18">
       <c r="A61" s="36">
         <v>20181230</v>
       </c>
@@ -34678,7 +34690,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" ht="18">
       <c r="A62" s="36">
         <v>20181231</v>
       </c>
@@ -34716,7 +34728,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" ht="18">
       <c r="A63" s="36">
         <v>20190101</v>
       </c>
@@ -34754,7 +34766,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" ht="18">
       <c r="A64" s="36">
         <v>20190102</v>
       </c>
@@ -34792,7 +34804,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" ht="18">
       <c r="A65" s="36">
         <v>20190103</v>
       </c>
@@ -34830,7 +34842,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" ht="18">
       <c r="A66" s="36">
         <v>20190104</v>
       </c>
@@ -34868,7 +34880,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" ht="18">
       <c r="A67" s="36">
         <v>20190105</v>
       </c>
@@ -34906,7 +34918,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" ht="18">
       <c r="A68" s="36">
         <v>20190106</v>
       </c>
@@ -34944,7 +34956,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" ht="18">
       <c r="A69" s="36">
         <v>20190107</v>
       </c>
@@ -34982,7 +34994,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" ht="18">
       <c r="A70" s="36">
         <v>20190108</v>
       </c>
@@ -35020,7 +35032,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" ht="18">
       <c r="A71" s="36">
         <v>20190109</v>
       </c>
@@ -35058,7 +35070,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" ht="18">
       <c r="A72" s="36">
         <v>20190110</v>
       </c>
@@ -35096,7 +35108,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" ht="18">
       <c r="A73" s="36">
         <v>20190111</v>
       </c>
@@ -35134,7 +35146,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" ht="18">
       <c r="A74" s="36">
         <v>20190112</v>
       </c>
@@ -35172,7 +35184,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" ht="18">
       <c r="A75" s="36">
         <v>20190113</v>
       </c>
@@ -35210,7 +35222,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" ht="18">
       <c r="A76" s="36">
         <v>20190114</v>
       </c>
@@ -35248,7 +35260,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" ht="18">
       <c r="A77" s="36">
         <v>20190115</v>
       </c>
@@ -35286,7 +35298,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" ht="18">
       <c r="A78" s="36">
         <v>20190116</v>
       </c>
@@ -35324,7 +35336,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" ht="18">
       <c r="A79" s="36">
         <v>20190117</v>
       </c>
@@ -35362,7 +35374,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" ht="18">
       <c r="A80" s="36">
         <v>20190118</v>
       </c>
@@ -35400,7 +35412,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" ht="18">
       <c r="A81" s="36">
         <v>20190119</v>
       </c>
@@ -35438,7 +35450,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" ht="18">
       <c r="A82" s="36">
         <v>20190120</v>
       </c>
@@ -35476,7 +35488,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" ht="18">
       <c r="A83" s="36">
         <v>20190121</v>
       </c>
@@ -35514,7 +35526,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" ht="18">
       <c r="A84" s="36">
         <v>20190122</v>
       </c>
@@ -35552,7 +35564,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" ht="18">
       <c r="A85" s="36">
         <v>20190123</v>
       </c>
@@ -35590,7 +35602,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" ht="18">
       <c r="A86" s="36">
         <v>20190124</v>
       </c>
@@ -35628,7 +35640,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" ht="18">
       <c r="A87" s="36">
         <v>20190125</v>
       </c>
@@ -35666,7 +35678,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" ht="18">
       <c r="A88" s="36">
         <v>20190126</v>
       </c>
@@ -35704,7 +35716,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" ht="18">
       <c r="A89" s="36">
         <v>20190127</v>
       </c>
@@ -35742,7 +35754,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" ht="18">
       <c r="A90" s="36">
         <v>20190128</v>
       </c>
@@ -35780,7 +35792,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" ht="18">
       <c r="A91" s="36">
         <v>20190129</v>
       </c>
@@ -35818,7 +35830,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" ht="18">
       <c r="A92" s="36">
         <v>20190130</v>
       </c>
@@ -35856,7 +35868,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" ht="18">
       <c r="A93" s="36">
         <v>20190131</v>
       </c>
@@ -35894,7 +35906,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" ht="18">
       <c r="A94" s="36">
         <v>20190201</v>
       </c>
@@ -35932,7 +35944,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" ht="18">
       <c r="A95" s="36">
         <v>20190202</v>
       </c>
@@ -35970,7 +35982,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" ht="18">
       <c r="A96" s="36">
         <v>20190203</v>
       </c>
@@ -36008,7 +36020,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" ht="18">
       <c r="A97" s="36">
         <v>20190204</v>
       </c>
@@ -36046,7 +36058,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" ht="18">
       <c r="A98" s="36">
         <v>20190205</v>
       </c>
@@ -36084,7 +36096,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" ht="18">
       <c r="A99" s="36">
         <v>20190206</v>
       </c>
@@ -36122,7 +36134,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" ht="18">
       <c r="A100" s="36">
         <v>20190207</v>
       </c>
@@ -36160,7 +36172,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" ht="18">
       <c r="A101" s="36">
         <v>20190208</v>
       </c>
@@ -36198,7 +36210,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" ht="18">
       <c r="A102" s="36">
         <v>20190209</v>
       </c>
@@ -36236,7 +36248,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" ht="18">
       <c r="A103" s="36">
         <v>20190210</v>
       </c>
@@ -36274,7 +36286,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" ht="18">
       <c r="A104" s="36">
         <v>20190211</v>
       </c>
@@ -36312,7 +36324,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" ht="18">
       <c r="A105" s="36">
         <v>20190212</v>
       </c>
@@ -36350,7 +36362,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" ht="18">
       <c r="A106" s="36">
         <v>20190213</v>
       </c>
@@ -36388,7 +36400,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" ht="18">
       <c r="A107" s="36">
         <v>20190214</v>
       </c>
@@ -36426,7 +36438,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" ht="18">
       <c r="A108" s="36">
         <v>20190215</v>
       </c>
@@ -36464,7 +36476,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" ht="18">
       <c r="A109" s="36">
         <v>20190216</v>
       </c>
@@ -36502,7 +36514,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" ht="18">
       <c r="A110" s="36">
         <v>20190217</v>
       </c>
@@ -36540,7 +36552,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" ht="18">
       <c r="A111" s="36">
         <v>20190218</v>
       </c>
@@ -36578,7 +36590,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" ht="18">
       <c r="A112" s="36">
         <v>20190219</v>
       </c>
@@ -36616,7 +36628,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" ht="18">
       <c r="A113" s="36">
         <v>20190220</v>
       </c>
@@ -36654,7 +36666,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" ht="18">
       <c r="A114" s="36">
         <v>20190221</v>
       </c>
@@ -36692,7 +36704,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" ht="18">
       <c r="A115" s="36">
         <v>20190222</v>
       </c>
@@ -36730,7 +36742,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" ht="18">
       <c r="A116" s="36">
         <v>20190223</v>
       </c>
@@ -36768,7 +36780,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" ht="18">
       <c r="A117" s="36">
         <v>20190224</v>
       </c>
@@ -36806,7 +36818,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" ht="18">
       <c r="A118" s="36">
         <v>20190225</v>
       </c>
@@ -36844,7 +36856,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" ht="18">
       <c r="A119" s="36">
         <v>20190226</v>
       </c>
@@ -36882,7 +36894,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" ht="18">
       <c r="A120" s="36">
         <v>20190227</v>
       </c>
@@ -36920,7 +36932,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" ht="18">
       <c r="A121" s="36">
         <v>20190228</v>
       </c>
@@ -36958,7 +36970,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" ht="18">
       <c r="A122" s="36">
         <v>20190301</v>
       </c>
@@ -36996,7 +37008,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" ht="18">
       <c r="A123" s="36">
         <v>20190302</v>
       </c>
@@ -37034,7 +37046,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" ht="18">
       <c r="A124" s="36">
         <v>20190303</v>
       </c>
@@ -37072,7 +37084,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" ht="18">
       <c r="A125" s="36">
         <v>20190304</v>
       </c>
@@ -37110,7 +37122,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" ht="18">
       <c r="A126" s="36">
         <v>20190305</v>
       </c>
@@ -37148,7 +37160,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" ht="18">
       <c r="A127" s="36">
         <v>20190306</v>
       </c>
@@ -37186,7 +37198,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" ht="18">
       <c r="A128" s="36">
         <v>20190307</v>
       </c>
@@ -37224,7 +37236,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" ht="18">
       <c r="A129" s="36">
         <v>20190308</v>
       </c>
@@ -37262,7 +37274,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" ht="18">
       <c r="A130" s="36">
         <v>20190309</v>
       </c>
@@ -37300,7 +37312,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" ht="18">
       <c r="A131" s="36">
         <v>20190310</v>
       </c>
@@ -37338,7 +37350,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" ht="18">
       <c r="A132" s="36">
         <v>20190311</v>
       </c>
@@ -37376,7 +37388,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" ht="18">
       <c r="A133" s="36">
         <v>20190312</v>
       </c>
@@ -37414,7 +37426,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" ht="18">
       <c r="A134" s="36">
         <v>20190313</v>
       </c>
@@ -37452,7 +37464,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" ht="18">
       <c r="A135" s="36">
         <v>20190314</v>
       </c>
@@ -37490,7 +37502,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" ht="18">
       <c r="A136" s="36">
         <v>20190315</v>
       </c>
@@ -37528,7 +37540,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" ht="18">
       <c r="A137" s="36">
         <v>20190316</v>
       </c>
@@ -37566,7 +37578,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" ht="18">
       <c r="A138" s="36">
         <v>20190317</v>
       </c>
@@ -37604,7 +37616,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" ht="18">
       <c r="A139" s="36">
         <v>20190318</v>
       </c>
@@ -37642,7 +37654,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" ht="18">
       <c r="A140" s="36">
         <v>20190319</v>
       </c>
@@ -37680,7 +37692,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" ht="18">
       <c r="A141" s="36">
         <v>20190320</v>
       </c>
@@ -37718,7 +37730,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" ht="18">
       <c r="A142" s="36">
         <v>20190321</v>
       </c>
@@ -37756,7 +37768,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" ht="18">
       <c r="A143" s="36">
         <v>20190322</v>
       </c>
@@ -37794,7 +37806,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" ht="18">
       <c r="A144" s="36">
         <v>20190323</v>
       </c>
@@ -37833,7 +37845,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -37841,16 +37853,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -37894,26 +37906,41 @@
       </c>
     </row>
     <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
       <c r="B6" s="43">
         <v>43617</v>
       </c>
     </row>
     <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7</v>
+      </c>
       <c r="B7" s="43">
         <v>43647</v>
       </c>
     </row>
     <row r="8" spans="1:2">
+      <c r="A8">
+        <v>8</v>
+      </c>
       <c r="B8" s="43">
         <v>43678</v>
       </c>
     </row>
     <row r="9" spans="1:2">
+      <c r="A9">
+        <v>9</v>
+      </c>
       <c r="B9" s="43">
         <v>43709</v>
       </c>
     </row>
     <row r="10" spans="1:2">
+      <c r="A10">
+        <v>10</v>
+      </c>
       <c r="B10" s="43">
         <v>43739</v>
       </c>
